--- a/barcode.xlsx
+++ b/barcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA34C9-567B-4FCF-9062-A595091AA6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013A4D6-54D3-4715-A285-8A655C10954D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fhsjk93749</t>
   </si>
   <si>
     <t>120000</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
   <si>
     <t>T shirt</t>
@@ -381,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,44 +388,36 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2">
+        <v>600000</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C3" s="2">
         <v>120000</v>
       </c>
     </row>
